--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-ratio-amount-per-amount.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-ratio-amount-per-amount.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ratio</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-emed-ratio-with-emed-units</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -670,43 +670,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.53125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.76171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-ratio-amount-per-amount.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-ratio-amount-per-amount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,30 +331,36 @@
     <t>Ratio.numerator</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity {http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-amount-quantity}
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.numerator</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>.denominator</t>
   </si>
 </sst>
 </file>
@@ -670,43 +676,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="45.1875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1170,20 +1176,18 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
         <v>105</v>
       </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>76</v>
@@ -1241,24 +1245,24 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1278,20 +1282,18 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
         <v>76</v>
@@ -1340,7 +1342,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -1349,16 +1351,16 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
